--- a/data/spreadsheet/pilot.xlsx
+++ b/data/spreadsheet/pilot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\collegeStuff\digitalScholarship\islam-in-china\data\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38723F11-6613-4948-8D50-1217BCD2A4CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D050187F-54B2-4B34-A2F3-3EEF57049F93}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -598,7 +598,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/spreadsheet/pilot.xlsx
+++ b/data/spreadsheet/pilot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -959,6 +959,74 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>text_007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>دعوة المسلمين</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Da'wat al-Muslimīn</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>乜帖 汉文注音释义 (Nie tie Hanwen zhuyin shiyi)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>北京市伊斯兰教协会 Beijing city Islamic Association</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>1982</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Chinese||Arabic||Persian</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>112</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A popular pamphlet with many iterations, mostly self-published. Contains detailed instructions on how to perform prayers and ritual ablution. Instructions are offered in Persian while the ritual incantations are in Arabic. Arabic incantations are translated and transliterated into Chinese (this particular register of Chinese is known as jingtangyu among Sino-Muslims), while Persian instructions are only translated into Chinese. </t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Some incantations are directly in Persian (such as certain niyyat for ritual ablution), while in other cases Persian instructions are offered for circumstances where Arabic incantations are to be recited. This arrangement implies that earlier users of this tri-lingual manual might have known Persian before they knew Arabic. Considering the fact the text was in wide circulation long before this printed edition appeared -- the calligraphy seems to indicate as much -- it is not unlikely that earlier users of this text were Persophone, though the extent of their knowledge in Persian is hard to ascertain. There are signs that show the scribe's knowledge of Persian to be limited; it might have been skewed by his knowledge of Arabic, which may indicate the later date of this manuscript. This text is graciously gifted by Professor Matsumoto Masumi of Muroran Institute of Technology in Japan.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/spreadsheet/pilot.xlsx
+++ b/data/spreadsheet/pilot.xlsx
@@ -436,92 +436,92 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Internal Project Id</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Title in Arabic/Persian script</t>
+          <t>arab_title_script</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Transliterated Arabic Title</t>
+          <t>arab_title</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Chinese Title</t>
+          <t>chinese_title</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Author</t>
+          <t>author</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Assembler</t>
+          <t>assembler</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Editor</t>
+          <t>editor</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Scrivener</t>
+          <t>scrivener</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Translator</t>
+          <t>translator</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Type of Publication</t>
+          <t>type</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Place of Publication</t>
+          <t>place</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Publisher</t>
+          <t>publisher</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Year of Publication</t>
+          <t>year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Standardized Year of Publication</t>
+          <t>stand_year</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Language</t>
+          <t>language</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Number of Pages</t>
+          <t>num_pages</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>description</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Notes</t>
+          <t>notes</t>
         </is>
       </c>
     </row>

--- a/data/spreadsheet/pilot.xlsx
+++ b/data/spreadsheet/pilot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,6 +1027,90 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>text_008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ذكر المنشاري</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Dhikr al-Minshārī</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>明沙勒</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Muhammad bn Ahmad Aqīla al-Makkiyy</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Muhammad Husayn Ibn Khalīlillāh</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Unidentified</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Han Hucai 韩胡才</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Unidentified</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Unidentified</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Likely 2010s</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Arabic||Persian</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An essential liturgical text for the Naqshbandiyya-Khufiyya (or Khafiyya) Sufi order in China. Contains detailed instructions on how to perform a ritual that takes place weekly on Thursday between the morning (fajr) and the noon (dhuhr) prayer. </t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>While the text is often known to mark off the Khufiyya (or Khafiyya) from other Sufi orders in China, the text exhibits a strong ecumenical Sufism in that the supplication at the end declares in a mix of Arabic and Persian allegiance to a wide range of Sufi masters. In addition to the founder of the Naqshbandiyya, we also find, for instance, Ahmad Yasavī and Abdul Qādir Jīlānī. Another key point worth a note is that while it is often claimed that Khufiyya is known for its "silent" dhikr, no instructions of this kind are to be found in this liturgical text. On the contrary, we find plenty of notes calling on the reciters to chant in loud voices. While the text is mostly in Arabic, the last supplication, here named du'ā' al-nafs (starting on page 39), is in Persian, and recounts the broad Khufiyya genealogy. For an English translation of this supplication, see Jonathan Lipman and Thomas Wide, "Spiritual Genealogies of Gansu: Chains of Transmission in the Jahrīya and Khafīya Turuq," in Islam and Chinese Society: Genealogies, Lineage and Local Communities. London: Routledge, 2020, p. 44-45.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/spreadsheet/pilot.xlsx
+++ b/data/spreadsheet/pilot.xlsx
@@ -1058,11 +1058,7 @@
           <t>Muhammad Husayn Ibn Khalīlillāh</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Unidentified</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
           <t>Han Hucai 韩胡才</t>
@@ -1074,16 +1070,8 @@
           <t>Book</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Unidentified</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Unidentified</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
           <t>Likely 2010s</t>
